--- a/winAsimilados/Resources/Formato_Masivo_Empleados.xlsx
+++ b/winAsimilados/Resources/Formato_Masivo_Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aespejel\source\repos\winAsimilados\winAsimilados\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C80E4E-CB77-4E83-9C6B-BE205ABAB675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD9A5F-AC80-449D-9145-F0BE1CC34CD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{669BB77A-E265-42D7-8B1F-40247EB15B12}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="473">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -44,29 +44,1418 @@
     <t>PERIDIOCIDAD DE PAGO</t>
   </si>
   <si>
-    <t>ESPEJEL MARTINEZ ANGEL JORDY</t>
-  </si>
-  <si>
-    <t>EEMA930408QU5</t>
-  </si>
-  <si>
-    <t>EEMA930408HDFSRN04</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>EEMA930408QU51</t>
-  </si>
-  <si>
-    <t>EEMA930408HDFSRN044</t>
+    <t>Cuenta Bancaría</t>
+  </si>
+  <si>
+    <t>CLABE</t>
+  </si>
+  <si>
+    <t>CVE Banco</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>ID Empresa</t>
+  </si>
+  <si>
+    <t># Empleado</t>
+  </si>
+  <si>
+    <t>CANALES SANCHEZ RICARDO</t>
+  </si>
+  <si>
+    <t>NAVARRO MUÑOZ FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>PASTRANA CASTILLEJA FERNANDO ADRIAN</t>
+  </si>
+  <si>
+    <t>ARANA DEL ANGEL PEDRO</t>
+  </si>
+  <si>
+    <t>MARTINEZ CUEVAS ANIBAL FERNANDO</t>
+  </si>
+  <si>
+    <t>CADENA MATHEY RAUL ALFREDO</t>
+  </si>
+  <si>
+    <t>PALOMARES CASTAÑEDA GUADALUPE</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ TORRES EMERIA</t>
+  </si>
+  <si>
+    <t>MARTINEZ TREVIZO RAMON IVAN</t>
+  </si>
+  <si>
+    <t>CHIMELY PADILLA EVELYN</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ VAZQUEZ JOSE JAIME</t>
+  </si>
+  <si>
+    <t>ZAPATA CASTILLO EDGAR</t>
+  </si>
+  <si>
+    <t>DIAZ BETHENCOURT MARIA ISABEL GEORGINA</t>
+  </si>
+  <si>
+    <t>LOPEZ GARCIA BEATRIZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ NIETO ENRIQUE</t>
+  </si>
+  <si>
+    <t>SERENO CRUZ JORGE LUIS</t>
+  </si>
+  <si>
+    <t>KU CHAN RENDI MARTIN</t>
+  </si>
+  <si>
+    <t>AGUILAR MENDEZ NELLY BERENICE</t>
+  </si>
+  <si>
+    <t>GONZALEZ MORALES ENRIQUE OTHON</t>
+  </si>
+  <si>
+    <t>GUZMAN RODRIGUEZ NORBERTO</t>
+  </si>
+  <si>
+    <t>ANGULO HERNANDEZ PABLO GUADALUPE</t>
+  </si>
+  <si>
+    <t>BARRAGAN LEYVA DAVID ALBERTO</t>
+  </si>
+  <si>
+    <t>BENAVIDES VAZQUEZ GERARDO</t>
+  </si>
+  <si>
+    <t>CAMARENA AGUILAR DANIEL JOSUE</t>
+  </si>
+  <si>
+    <t>CESPEDES MATA JUAN ANDRES</t>
+  </si>
+  <si>
+    <t>CRUZ GONZALEZ NANCY</t>
+  </si>
+  <si>
+    <t>DAVALOS RAMIREZ MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ESCALERA TORRES AMBROSIO</t>
+  </si>
+  <si>
+    <t>ESCOBAR CAMARGO JOHANA</t>
+  </si>
+  <si>
+    <t>ESPRIELLA SANCHEZ JULIA VANESSA</t>
+  </si>
+  <si>
+    <t>GARCIA HERNANDEZ ALMENDRA GUADALUPE</t>
+  </si>
+  <si>
+    <t>GONZALEZ BLANCO MIGUEL</t>
+  </si>
+  <si>
+    <t>GONZALEZ GARCIA BERNARDO</t>
+  </si>
+  <si>
+    <t>GUERRERO GONZALEZ DELFINO</t>
+  </si>
+  <si>
+    <t>GUTIERREZ LOPEZ MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>HERRERA ALVAREZ KARLA MONSERRAT</t>
+  </si>
+  <si>
+    <t>HERRERA CARDENAS VERONICA</t>
+  </si>
+  <si>
+    <t>LOPEZ ARENAS RAFAEL FAUSTO</t>
+  </si>
+  <si>
+    <t>LOPEZ RUBIO MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MELLADO CORONA NELY CRISTINA</t>
+  </si>
+  <si>
+    <t>MENDEZ CAMACHO NATOLIO</t>
+  </si>
+  <si>
+    <t>MENDOZA FLORES SERGIO</t>
+  </si>
+  <si>
+    <t>OCHOA PABLOS VELEZ CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>OROZCO CESPEDES CARMEN IRENE</t>
+  </si>
+  <si>
+    <t>ORTEGA FLORES JUANA ARACELY</t>
+  </si>
+  <si>
+    <t>PEREZ SANCHEZ MARIANA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>REYES MARES LEXY</t>
+  </si>
+  <si>
+    <t>RIVERA PEREZ CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>ROCHA GANDARA VANESSA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RODRIGUEZ NINIVE</t>
+  </si>
+  <si>
+    <t>SALINAS CARRIZALES ANA KAREN</t>
+  </si>
+  <si>
+    <t>SARMIENTO LOPEZ JUAN JOSE</t>
+  </si>
+  <si>
+    <t>SIMON GEREZ LUIS ARMANDO</t>
+  </si>
+  <si>
+    <t>TORRES PEREZ LUIS EDUARDO</t>
+  </si>
+  <si>
+    <t>TOSCANO AVENDAÑO MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VALDOVINOS HERNANDEZ JULIO ALBERTO</t>
+  </si>
+  <si>
+    <t>VERA SALDAÑA KARINA FABIOLA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA GUERRERO ARTURO</t>
+  </si>
+  <si>
+    <t>ZAVALA HERNANDEZ MOISES</t>
+  </si>
+  <si>
+    <t>TERAN VAZQUEZ JUVENAL</t>
+  </si>
+  <si>
+    <t>DIAZ AVILA FABIOLA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ ALVARADO DIANA ERIKA</t>
+  </si>
+  <si>
+    <t>DE LA PAZ SAUCEDO TALHIA BERENICE</t>
+  </si>
+  <si>
+    <t>VILLARREAL SIMON JOSE EDUARDO</t>
+  </si>
+  <si>
+    <t>PEREZ BARRAGAN MAGDA ALICIA</t>
+  </si>
+  <si>
+    <t>VELA FERNANDEZ JAVIER</t>
+  </si>
+  <si>
+    <t>MANELLI FEDERICO MIGUEL</t>
+  </si>
+  <si>
+    <t>CRUZ CASTILLO SERGIO ADAN</t>
+  </si>
+  <si>
+    <t>ESTRADA MENDOZA CHRISTIAN FABIOLA</t>
+  </si>
+  <si>
+    <t>QUIÑONES LOPEZ CRISTINA SARAI</t>
+  </si>
+  <si>
+    <t>MARQUEZ HERNANDEZ MARIANA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PEREZ DIAZ JESSICA AIMEE</t>
+  </si>
+  <si>
+    <t>AGUILAR CANO CYNTHIA EDITH</t>
+  </si>
+  <si>
+    <t>GONZALEZ DIAZ VALERIA</t>
+  </si>
+  <si>
+    <t>MUÑOZ MARTINEZ EDGAR</t>
+  </si>
+  <si>
+    <t>BARRERO HERNANDEZ PABLO ABRAHAM</t>
+  </si>
+  <si>
+    <t>GARCIA MAYA JOSE VICTOR</t>
+  </si>
+  <si>
+    <t>FERES SCHEKAIBAN SAMIRA</t>
+  </si>
+  <si>
+    <t>MORALES SANCHEZ ULISES</t>
+  </si>
+  <si>
+    <t>QUEZADA IBARRA JOSELYN</t>
+  </si>
+  <si>
+    <t>CRESPO MARTINEZ ANABEL</t>
+  </si>
+  <si>
+    <t>GALLEGOS AREVALO GRECIA MARIANA</t>
+  </si>
+  <si>
+    <t>CALOCA DEL ANGEL MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ARGUELLES MORALES JOSE ALBERTO</t>
+  </si>
+  <si>
+    <t>CRUZ GASPAR GABRIEL</t>
+  </si>
+  <si>
+    <t>RAMIREZ MORENO CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>CASTILLO LEDEZMA ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ACEVES DE LUNA BRENDA ISABEL</t>
+  </si>
+  <si>
+    <t>ACUÑA CASANOVA DIANA LUZ</t>
+  </si>
+  <si>
+    <t>ESCAMILLA GUZMAN PATRICIA</t>
+  </si>
+  <si>
+    <t>ARTEAGA DEL ANGEL MARIA DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>CASR6202078Z8</t>
+  </si>
+  <si>
+    <t>CASR620207HVZNNC06</t>
+  </si>
+  <si>
+    <t>NAMF690903DYA</t>
+  </si>
+  <si>
+    <t>NAMF690903HJCVXR01</t>
+  </si>
+  <si>
+    <t>PACF591205NYA</t>
+  </si>
+  <si>
+    <t>PACF591205HTSSSR04</t>
+  </si>
+  <si>
+    <t>AAAP370519MPA</t>
+  </si>
+  <si>
+    <t>AAAP370519HVZRND04</t>
+  </si>
+  <si>
+    <t>MACA840914TN4</t>
+  </si>
+  <si>
+    <t>MACA840914HTSRVN06</t>
+  </si>
+  <si>
+    <t>CAMR620328EP1</t>
+  </si>
+  <si>
+    <t>CAMR620328HVZDTL03</t>
+  </si>
+  <si>
+    <t>PACG811211J25</t>
+  </si>
+  <si>
+    <t>PACG811211MCHLSD00</t>
+  </si>
+  <si>
+    <t>ROTE5105216J0</t>
+  </si>
+  <si>
+    <t>ROTE510521MCHDRM09</t>
+  </si>
+  <si>
+    <t>MATR810324SH4</t>
+  </si>
+  <si>
+    <t>MATR810324HCHRRM00</t>
+  </si>
+  <si>
+    <t>CIPE560318JV0</t>
+  </si>
+  <si>
+    <t>CIPE560318MTSHDV06</t>
+  </si>
+  <si>
+    <t>ROVJ830806N76</t>
+  </si>
+  <si>
+    <t>ROVJ830806HTSDZM06</t>
+  </si>
+  <si>
+    <t>ZACE820226PS3</t>
+  </si>
+  <si>
+    <t>ZACE820226HSPPSD06</t>
+  </si>
+  <si>
+    <t>DIBI621102E30</t>
+  </si>
+  <si>
+    <t>DIBI621102MHGZTS05</t>
+  </si>
+  <si>
+    <t>LOGB860218M81</t>
+  </si>
+  <si>
+    <t>LOGB860218MGTPRT02</t>
+  </si>
+  <si>
+    <t>RONE860202BH1</t>
+  </si>
+  <si>
+    <t>RONE860202HNLDTN06</t>
+  </si>
+  <si>
+    <t>SECJ7403069J9</t>
+  </si>
+  <si>
+    <t>SECJ740306HDFRRR03</t>
+  </si>
+  <si>
+    <t>KUCR7901301FA</t>
+  </si>
+  <si>
+    <t>KUCR790130HQRXHN05</t>
+  </si>
+  <si>
+    <t>AUMN850212NN6</t>
+  </si>
+  <si>
+    <t>AUMN850212MCLGNL08</t>
+  </si>
+  <si>
+    <t>GOME831021919</t>
+  </si>
+  <si>
+    <t>GOME831021HDFNRN00</t>
+  </si>
+  <si>
+    <t>GURN700606SL5</t>
+  </si>
+  <si>
+    <t>GURN700606HVZZDR02</t>
+  </si>
+  <si>
+    <t>AUHP7608071F8</t>
+  </si>
+  <si>
+    <t>AUHP760807HSLNRB09</t>
+  </si>
+  <si>
+    <t>BALD8908269I0</t>
+  </si>
+  <si>
+    <t>BALD890826HTSRYV04</t>
+  </si>
+  <si>
+    <t>BEVG751231PDA</t>
+  </si>
+  <si>
+    <t>BEVG751231HTSNZR03</t>
+  </si>
+  <si>
+    <t>CAAD820107LB3</t>
+  </si>
+  <si>
+    <t>CAAD820107HTSMGN04</t>
+  </si>
+  <si>
+    <t>CEMJ761130TC3</t>
+  </si>
+  <si>
+    <t>CEMJ761130HTSSTN06</t>
+  </si>
+  <si>
+    <t>CUGN8006253G9</t>
+  </si>
+  <si>
+    <t>CUGN800625MTSRNN02</t>
+  </si>
+  <si>
+    <t>DARC860716SS3</t>
+  </si>
+  <si>
+    <t>DARC860716MSPVMR00</t>
+  </si>
+  <si>
+    <t>EATA701107841</t>
+  </si>
+  <si>
+    <t>EATA701107HTSSRM01</t>
+  </si>
+  <si>
+    <t>EOCJ870401MVA</t>
+  </si>
+  <si>
+    <t>EOCJ870401MMCSMH04</t>
+  </si>
+  <si>
+    <t>EISJ840428EN1</t>
+  </si>
+  <si>
+    <t>EISJ840428MTSSNL03</t>
+  </si>
+  <si>
+    <t>GAHA801128CP6</t>
+  </si>
+  <si>
+    <t>GAHA801128MVZRRL02</t>
+  </si>
+  <si>
+    <t>GOBM550722PE0</t>
+  </si>
+  <si>
+    <t>GOBM550722HVZNLG08</t>
+  </si>
+  <si>
+    <t>GOGB490813DY2</t>
+  </si>
+  <si>
+    <t>GOGB490813HTSNRR07</t>
+  </si>
+  <si>
+    <t>GUGD791115GS1</t>
+  </si>
+  <si>
+    <t>GUGD791115HTSRNL06</t>
+  </si>
+  <si>
+    <t>GULG8601191E8</t>
+  </si>
+  <si>
+    <t>GULG860119MMNTPD06</t>
+  </si>
+  <si>
+    <t>HEAK921211UB7</t>
+  </si>
+  <si>
+    <t>HEAK921211MVZRLR07</t>
+  </si>
+  <si>
+    <t>HECV721101DJ9</t>
+  </si>
+  <si>
+    <t>HECV721101MVZRRR06</t>
+  </si>
+  <si>
+    <t>LOAR810906QZ2</t>
+  </si>
+  <si>
+    <t>LOAR810906HMSPRF08</t>
+  </si>
+  <si>
+    <t>LORC740520KYA</t>
+  </si>
+  <si>
+    <t>LORC740520MVZPBR18</t>
+  </si>
+  <si>
+    <t>MECN900416LV1</t>
+  </si>
+  <si>
+    <t>MECN900416MTSLRL05</t>
+  </si>
+  <si>
+    <t>MECN7608038P4</t>
+  </si>
+  <si>
+    <t>MECN760803HTSNMT05</t>
+  </si>
+  <si>
+    <t>MEFS7002262BA</t>
+  </si>
+  <si>
+    <t>MEFS700226HDFNLR07</t>
+  </si>
+  <si>
+    <t>OOPC550922PJ5</t>
+  </si>
+  <si>
+    <t>OOPC550922HTSCBR09</t>
+  </si>
+  <si>
+    <t>OOCC8501113X8</t>
+  </si>
+  <si>
+    <t>OOCC850111MMCRSR04</t>
+  </si>
+  <si>
+    <t>OEFJ7602135P1</t>
+  </si>
+  <si>
+    <t>OEFJ760213MTSRLN09</t>
+  </si>
+  <si>
+    <t>PESM780727JS8</t>
+  </si>
+  <si>
+    <t>PESM780727MDFRNR05</t>
+  </si>
+  <si>
+    <t>REML8403277G2</t>
+  </si>
+  <si>
+    <t>REML840327MVZYRX06</t>
+  </si>
+  <si>
+    <t>RIPC8610248U7</t>
+  </si>
+  <si>
+    <t>RIPC861024HTSVRR00</t>
+  </si>
+  <si>
+    <t>ROGV800810NWA</t>
+  </si>
+  <si>
+    <t>ROGV800810MTSCNN04</t>
+  </si>
+  <si>
+    <t>RORN761010FS2</t>
+  </si>
+  <si>
+    <t>RORN761010MTCDDN06</t>
+  </si>
+  <si>
+    <t>SACA9301143I7</t>
+  </si>
+  <si>
+    <t>SACA930114MTSLRN08</t>
+  </si>
+  <si>
+    <t>SALJ701104ULA</t>
+  </si>
+  <si>
+    <t>SALJ701104HTSRPN07</t>
+  </si>
+  <si>
+    <t>SIGL780712AP0</t>
+  </si>
+  <si>
+    <t>SIGL780712HTSMRS05</t>
+  </si>
+  <si>
+    <t>TOPL890511UB1</t>
+  </si>
+  <si>
+    <t>TOPL890511HTSRRS02</t>
+  </si>
+  <si>
+    <t>TOAC8405036I2</t>
+  </si>
+  <si>
+    <t>TOAC840503MTSSVR02</t>
+  </si>
+  <si>
+    <t>VAHJ88100846A</t>
+  </si>
+  <si>
+    <t>VAHJ881008HGRLRL01</t>
+  </si>
+  <si>
+    <t>VESK8009275G6</t>
+  </si>
+  <si>
+    <t>VESK800927MTSRLR00</t>
+  </si>
+  <si>
+    <t>VIGA780902KC7</t>
+  </si>
+  <si>
+    <t>VIGA780902HTSLRR02</t>
+  </si>
+  <si>
+    <t>ZAHM7509041S3</t>
+  </si>
+  <si>
+    <t>ZAHM750904HTSVRS03</t>
+  </si>
+  <si>
+    <t>TEVJ760816SG1</t>
+  </si>
+  <si>
+    <t>TEVJ760816HTSRZV07</t>
+  </si>
+  <si>
+    <t>DIAF861020EZ6</t>
+  </si>
+  <si>
+    <t>DIAF861020MTSZVB02</t>
+  </si>
+  <si>
+    <t>GUAD8408057Z4</t>
+  </si>
+  <si>
+    <t>GUAD840805MTSTLN00</t>
+  </si>
+  <si>
+    <t>PAST870827RT6</t>
+  </si>
+  <si>
+    <t>PAST870827MTSZCL03</t>
+  </si>
+  <si>
+    <t>VISE950225JZ3</t>
+  </si>
+  <si>
+    <t>VISE950225HTSLMD04</t>
+  </si>
+  <si>
+    <t>PEBM530308QU8</t>
+  </si>
+  <si>
+    <t>PEBM530308MTSRRG04</t>
+  </si>
+  <si>
+    <t>VEFJ540309CH4</t>
+  </si>
+  <si>
+    <t>VEFJ540309HDFLRV05</t>
+  </si>
+  <si>
+    <t>MAFE860108GQ8</t>
+  </si>
+  <si>
+    <t>MAXF860108HNENXD01</t>
+  </si>
+  <si>
+    <t>CUCS6604301T1</t>
+  </si>
+  <si>
+    <t>CUCS660430HTSRSR04</t>
+  </si>
+  <si>
+    <t>EAMC8202279D3</t>
+  </si>
+  <si>
+    <t>EAMC820227MDFSNH08</t>
+  </si>
+  <si>
+    <t>QULC930429IUA</t>
+  </si>
+  <si>
+    <t>QULC930429MQRXPR00</t>
+  </si>
+  <si>
+    <t>MAHM9112096B4</t>
+  </si>
+  <si>
+    <t>MAHM911209MTSRRR02</t>
+  </si>
+  <si>
+    <t>PEDJ931004L98</t>
+  </si>
+  <si>
+    <t>PEDJ931004MTSRZS07</t>
+  </si>
+  <si>
+    <t>AUCC7809148A1</t>
+  </si>
+  <si>
+    <t>AUCC780914MTSGNY07</t>
+  </si>
+  <si>
+    <t>GODV860828T80</t>
+  </si>
+  <si>
+    <t>GODV860828MDFNZL00</t>
+  </si>
+  <si>
+    <t>MUME780819NW6</t>
+  </si>
+  <si>
+    <t>MUME780819HDFXRD06</t>
+  </si>
+  <si>
+    <t>BAHP860612281</t>
+  </si>
+  <si>
+    <t>BAHP860612HTSRRB01</t>
+  </si>
+  <si>
+    <t>GAMV660728CT5</t>
+  </si>
+  <si>
+    <t>GAMV660728HTSRYC03</t>
+  </si>
+  <si>
+    <t>FESS6609123R4</t>
+  </si>
+  <si>
+    <t>FESS660912MTSRCM00</t>
+  </si>
+  <si>
+    <t>MOSU940403IJ7</t>
+  </si>
+  <si>
+    <t>MOSU940403HTSRNL06</t>
+  </si>
+  <si>
+    <t>QUIJ8803161W1</t>
+  </si>
+  <si>
+    <t>QUIJ880318MCLZBS06</t>
+  </si>
+  <si>
+    <t>CEMA831027NU8</t>
+  </si>
+  <si>
+    <t>CEMA831027MGTRRN09</t>
+  </si>
+  <si>
+    <t>GAAG920422GH6</t>
+  </si>
+  <si>
+    <t>GAAG920422MQRLRR04</t>
+  </si>
+  <si>
+    <t>CAAI5708206G6</t>
+  </si>
+  <si>
+    <t>CAAI570820MVZLNS05</t>
+  </si>
+  <si>
+    <t>AUMA980807JP3</t>
+  </si>
+  <si>
+    <t>AUMA980807HTSRRL05</t>
+  </si>
+  <si>
+    <t>CUGG620317A32</t>
+  </si>
+  <si>
+    <t>CUGG620317HVZRSB00</t>
+  </si>
+  <si>
+    <t>RAMC8207216L6</t>
+  </si>
+  <si>
+    <t>RAMC820721HDGMRR01</t>
+  </si>
+  <si>
+    <t>CALA741109LQ1</t>
+  </si>
+  <si>
+    <t>CALA741109HTSSDL04</t>
+  </si>
+  <si>
+    <t>AELB921124AY5</t>
+  </si>
+  <si>
+    <t>AELB921124MASCNR04</t>
+  </si>
+  <si>
+    <t>AUCD620821NQ4</t>
+  </si>
+  <si>
+    <t>AUCD620821MTSCSN04</t>
+  </si>
+  <si>
+    <t>EAGP6809191X1</t>
+  </si>
+  <si>
+    <t>EAGP680919MTSSZT05</t>
+  </si>
+  <si>
+    <t>AEAS721010UA0</t>
+  </si>
+  <si>
+    <t>AEAS721010MTSRNC03</t>
+  </si>
+  <si>
+    <t>1458551693</t>
+  </si>
+  <si>
+    <t>012813014585516934</t>
+  </si>
+  <si>
+    <t>1489058737</t>
+  </si>
+  <si>
+    <t>012813014890587373</t>
+  </si>
+  <si>
+    <t>2631130641</t>
+  </si>
+  <si>
+    <t>012813026311306416</t>
+  </si>
+  <si>
+    <t>0188062218</t>
+  </si>
+  <si>
+    <t>072810001880622184</t>
+  </si>
+  <si>
+    <t>2849118454</t>
+  </si>
+  <si>
+    <t>012813028491184543</t>
+  </si>
+  <si>
+    <t>2659134778</t>
+  </si>
+  <si>
+    <t>012877026591347781</t>
+  </si>
+  <si>
+    <t>2697059477</t>
+  </si>
+  <si>
+    <t>012813026970594779</t>
+  </si>
+  <si>
+    <t>2853222195</t>
+  </si>
+  <si>
+    <t>012813028532221954</t>
+  </si>
+  <si>
+    <t>0242415263</t>
+  </si>
+  <si>
+    <t>002150902424152632</t>
+  </si>
+  <si>
+    <t>1489058613</t>
+  </si>
+  <si>
+    <t>012813014890586138</t>
+  </si>
+  <si>
+    <t>1140017051</t>
+  </si>
+  <si>
+    <t>012813011400170513</t>
+  </si>
+  <si>
+    <t>1458552517</t>
+  </si>
+  <si>
+    <t>012813014585525174</t>
+  </si>
+  <si>
+    <t>2967224583</t>
+  </si>
+  <si>
+    <t>012813029672245831</t>
+  </si>
+  <si>
+    <t>2886710220</t>
+  </si>
+  <si>
+    <t>012813028867102201</t>
+  </si>
+  <si>
+    <t>2666049109</t>
+  </si>
+  <si>
+    <t>012813026660491098</t>
+  </si>
+  <si>
+    <t>2967224559</t>
+  </si>
+  <si>
+    <t>012813029672245598</t>
+  </si>
+  <si>
+    <t>2841624555</t>
+  </si>
+  <si>
+    <t>012691028416245553</t>
+  </si>
+  <si>
+    <t>2780102377</t>
+  </si>
+  <si>
+    <t>012813027801023774</t>
+  </si>
+  <si>
+    <t>2611311751</t>
+  </si>
+  <si>
+    <t>012813026113117515</t>
+  </si>
+  <si>
+    <t>2756946763</t>
+  </si>
+  <si>
+    <t>012813027569467630</t>
+  </si>
+  <si>
+    <t>2884736354</t>
+  </si>
+  <si>
+    <t>012813028847363549</t>
+  </si>
+  <si>
+    <t>2636244114</t>
+  </si>
+  <si>
+    <t>012813026362441142</t>
+  </si>
+  <si>
+    <t>1436986005</t>
+  </si>
+  <si>
+    <t>012813014369860055</t>
+  </si>
+  <si>
+    <t>1489058931</t>
+  </si>
+  <si>
+    <t>012813014890589313</t>
+  </si>
+  <si>
+    <t>2873290557</t>
+  </si>
+  <si>
+    <t>012813028732905575</t>
+  </si>
+  <si>
+    <t>1458552746</t>
+  </si>
+  <si>
+    <t>012813014585527460</t>
+  </si>
+  <si>
+    <t>2945709059</t>
+  </si>
+  <si>
+    <t>012813029457090599</t>
+  </si>
+  <si>
+    <t>9630003994</t>
+  </si>
+  <si>
+    <t>002813096300039941</t>
+  </si>
+  <si>
+    <t>1419266976</t>
+  </si>
+  <si>
+    <t>012813014192669766</t>
+  </si>
+  <si>
+    <t>2894953029</t>
+  </si>
+  <si>
+    <t>012813028949530296</t>
+  </si>
+  <si>
+    <t>1458552967</t>
+  </si>
+  <si>
+    <t>012813014585529675</t>
+  </si>
+  <si>
+    <t>0235658140</t>
+  </si>
+  <si>
+    <t>072580002356581402</t>
+  </si>
+  <si>
+    <t>1458552770</t>
+  </si>
+  <si>
+    <t>012813014585527703</t>
+  </si>
+  <si>
+    <t>2981974971</t>
+  </si>
+  <si>
+    <t>012813029819749718</t>
+  </si>
+  <si>
+    <t>2603088871</t>
+  </si>
+  <si>
+    <t>012813026030888710</t>
+  </si>
+  <si>
+    <t>2721320882</t>
+  </si>
+  <si>
+    <t>012813027213208828</t>
+  </si>
+  <si>
+    <t>2707379870</t>
+  </si>
+  <si>
+    <t>012813027073798701</t>
+  </si>
+  <si>
+    <t>2778388377</t>
+  </si>
+  <si>
+    <t>012375027783883774</t>
+  </si>
+  <si>
+    <t>1941120011</t>
+  </si>
+  <si>
+    <t>058813719411200110</t>
+  </si>
+  <si>
+    <t>2922573431</t>
+  </si>
+  <si>
+    <t>012813029225734317</t>
+  </si>
+  <si>
+    <t>1458552061</t>
+  </si>
+  <si>
+    <t>012813014585520616</t>
+  </si>
+  <si>
+    <t>2666049206</t>
+  </si>
+  <si>
+    <t>012813026660492068</t>
+  </si>
+  <si>
+    <t>1458551995</t>
+  </si>
+  <si>
+    <t>012813014585519957</t>
+  </si>
+  <si>
+    <t>2984832574</t>
+  </si>
+  <si>
+    <t>012813029848325747</t>
+  </si>
+  <si>
+    <t>1463312720</t>
+  </si>
+  <si>
+    <t>012813014633127204</t>
+  </si>
+  <si>
+    <t>2920158658</t>
+  </si>
+  <si>
+    <t>012813029201586589</t>
+  </si>
+  <si>
+    <t>1490747432</t>
+  </si>
+  <si>
+    <t>012811014907474326</t>
+  </si>
+  <si>
+    <t>2756946690</t>
+  </si>
+  <si>
+    <t>012813027569466903</t>
+  </si>
+  <si>
+    <t>2955177464</t>
+  </si>
+  <si>
+    <t>012813029551774643</t>
+  </si>
+  <si>
+    <t>2888361193</t>
+  </si>
+  <si>
+    <t>012813028883611938</t>
+  </si>
+  <si>
+    <t>2721322699</t>
+  </si>
+  <si>
+    <t>012813027213226994</t>
+  </si>
+  <si>
+    <t>0153090558</t>
+  </si>
+  <si>
+    <t>012813001530905587</t>
+  </si>
+  <si>
+    <t>1458552428</t>
+  </si>
+  <si>
+    <t>012813014585524285</t>
+  </si>
+  <si>
+    <t>2878163642</t>
+  </si>
+  <si>
+    <t>012813028781636426</t>
+  </si>
+  <si>
+    <t>2681752456</t>
+  </si>
+  <si>
+    <t>012813026817524569</t>
+  </si>
+  <si>
+    <t>2950884324</t>
+  </si>
+  <si>
+    <t>012813029508843242</t>
+  </si>
+  <si>
+    <t>1458553920</t>
+  </si>
+  <si>
+    <t>012813014585539209</t>
+  </si>
+  <si>
+    <t>1140021849</t>
+  </si>
+  <si>
+    <t>012813011400218491</t>
+  </si>
+  <si>
+    <t>1242155109</t>
+  </si>
+  <si>
+    <t>012813012421551097</t>
+  </si>
+  <si>
+    <t>2993556697</t>
+  </si>
+  <si>
+    <t>012813029935566972</t>
+  </si>
+  <si>
+    <t>1295129141</t>
+  </si>
+  <si>
+    <t>012813012951291416</t>
+  </si>
+  <si>
+    <t>1458552886</t>
+  </si>
+  <si>
+    <t>012813014585528867</t>
+  </si>
+  <si>
+    <t>2943596117</t>
+  </si>
+  <si>
+    <t>012813029435961174</t>
+  </si>
+  <si>
+    <t>1296857884</t>
+  </si>
+  <si>
+    <t>012813012968578847</t>
+  </si>
+  <si>
+    <t>0637149662</t>
+  </si>
+  <si>
+    <t>072813006371496627</t>
+  </si>
+  <si>
+    <t>1294328450</t>
+  </si>
+  <si>
+    <t>012813012943284509</t>
+  </si>
+  <si>
+    <t>0084397391</t>
+  </si>
+  <si>
+    <t>002694700843973914</t>
+  </si>
+  <si>
+    <t>2625474663</t>
+  </si>
+  <si>
+    <t>012813026254746638</t>
+  </si>
+  <si>
+    <t>3504970713</t>
+  </si>
+  <si>
+    <t>044680035049707139</t>
+  </si>
+  <si>
+    <t>1263197018</t>
+  </si>
+  <si>
+    <t>012813012631970183</t>
+  </si>
+  <si>
+    <t>1260291749</t>
+  </si>
+  <si>
+    <t>012813012602917492</t>
+  </si>
+  <si>
+    <t>1255729645</t>
+  </si>
+  <si>
+    <t>012813012557296459</t>
+  </si>
+  <si>
+    <t>1241526677</t>
+  </si>
+  <si>
+    <t>012813012415266770</t>
+  </si>
+  <si>
+    <t>3700238082</t>
+  </si>
+  <si>
+    <t>044694237002380824</t>
+  </si>
+  <si>
+    <t>1421667793</t>
+  </si>
+  <si>
+    <t>012180014216677930</t>
+  </si>
+  <si>
+    <t>1218840466</t>
+  </si>
+  <si>
+    <t>012813012188404665</t>
+  </si>
+  <si>
+    <t>2983431851</t>
+  </si>
+  <si>
+    <t>012813029834318519</t>
+  </si>
+  <si>
+    <t>1401326759</t>
+  </si>
+  <si>
+    <t>012813014013267593</t>
+  </si>
+  <si>
+    <t>1263197166</t>
+  </si>
+  <si>
+    <t>012813012631971661</t>
+  </si>
+  <si>
+    <t>1296636063</t>
+  </si>
+  <si>
+    <t>012811012966360635</t>
+  </si>
+  <si>
+    <t>0060224364</t>
+  </si>
+  <si>
+    <t>002813700602243640</t>
+  </si>
+  <si>
+    <t>2982582147</t>
+  </si>
+  <si>
+    <t>012694029825821470</t>
+  </si>
+  <si>
+    <t>1458553106</t>
+  </si>
+  <si>
+    <t>012813014585531061</t>
+  </si>
+  <si>
+    <t>1501592149</t>
+  </si>
+  <si>
+    <t>012813015015921496</t>
+  </si>
+  <si>
+    <t>0193716228</t>
+  </si>
+  <si>
+    <t>012813001937162282</t>
+  </si>
+  <si>
+    <t>1565825970</t>
+  </si>
+  <si>
+    <t>012813015658259703</t>
+  </si>
+  <si>
+    <t>1519405313</t>
+  </si>
+  <si>
+    <t>012813015194053133</t>
+  </si>
+  <si>
+    <t>1572444372</t>
+  </si>
+  <si>
+    <t>012813015724443728</t>
+  </si>
+  <si>
+    <t>012813011295347179</t>
+  </si>
+  <si>
+    <t>2756946917</t>
+  </si>
+  <si>
+    <t>012813027569469175</t>
+  </si>
+  <si>
+    <t>2886710158</t>
+  </si>
+  <si>
+    <t>012813028867101587</t>
+  </si>
+  <si>
+    <t>BBVA BANCOMER</t>
+  </si>
+  <si>
+    <t>BANORTE</t>
+  </si>
+  <si>
+    <t>BANAMEX</t>
+  </si>
+  <si>
+    <t>BANREGIO</t>
+  </si>
+  <si>
+    <t>SCOTIABANK</t>
+  </si>
+  <si>
+    <t>GRUPO ARYVE</t>
+  </si>
+  <si>
+    <t>E00132</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +1490,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +1540,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,12 +1583,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +1613,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -495,84 +1954,3256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF2366B-8682-479D-85C8-42D73AA8D484}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>313</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>314</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>315</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>316</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>317</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>318</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>319</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>320</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>321</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>322</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>323</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>324</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>325</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>326</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>327</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>328</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>329</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>330</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>331</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>332</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>333</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>334</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>335</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>336</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>337</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>338</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>339</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>340</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>341</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>342</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>343</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>344</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>345</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>346</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>347</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>348</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>349</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>350</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>351</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>352</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>353</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>354</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>355</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>356</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>357</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>358</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>359</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>360</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>361</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>362</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>363</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="H52" s="7">
+        <v>1</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>364</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>365</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>366</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>367</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>368</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>369</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>370</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="H59" s="7">
+        <v>1</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>371</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>372</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>373</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>374</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>375</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>376</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>377</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>378</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>379</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>380</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>381</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>382</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>383</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>384</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>385</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>386</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="H75" s="7">
+        <v>1</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>387</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>388</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>389</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>390</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="H79" s="7">
+        <v>1</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>391</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="H80" s="7">
+        <v>1</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>392</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>393</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>394</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="H83" s="7">
+        <v>1</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>395</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>396</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>397</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="H86" s="7">
+        <v>1</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>398</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>399</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="H88" s="7">
+        <v>1</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>400</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H89" s="7">
+        <v>1</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>402</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="10">
+        <v>1129534717</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="H90" s="7">
+        <v>1</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K90" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>420</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="H91" s="7">
+        <v>1</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>422</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange password="EF7B" sqref="A1" name="Rango1_3_1"/>
-    <protectedRange password="EF7B" sqref="B1" name="Rango1_3_1_1"/>
-    <protectedRange password="EF7B" sqref="C1" name="Rango1_3_1_2"/>
-    <protectedRange password="EF7B" sqref="D1" name="Rango1_3_1_3"/>
+    <protectedRange password="EF7B" sqref="A1:B1" name="Rango1_3_1"/>
+    <protectedRange password="EF7B" sqref="C1 F1" name="Rango1_3_1_1"/>
+    <protectedRange password="EF7B" sqref="D1 G1" name="Rango1_3_1_2"/>
+    <protectedRange password="EF7B" sqref="E1 H1:K1" name="Rango1_3_1_3"/>
   </protectedRanges>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="258" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/winAsimilados/Resources/Formato_Masivo_Empleados.xlsx
+++ b/winAsimilados/Resources/Formato_Masivo_Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aespejel\source\repos\winAsimilados\winAsimilados\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD9A5F-AC80-449D-9145-F0BE1CC34CD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3177D-7890-412A-980C-B5418990340A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{669BB77A-E265-42D7-8B1F-40247EB15B12}"/>
   </bookViews>
@@ -1445,10 +1445,10 @@
     <t>SCOTIABANK</t>
   </si>
   <si>
-    <t>GRUPO ARYVE</t>
-  </si>
-  <si>
     <t>E00132</t>
+  </si>
+  <si>
+    <t>CONSTRUCCIONES ARYVE SA DE CV</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF2366B-8682-479D-85C8-42D73AA8D484}">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1970,7 @@
     <col min="7" max="7" width="20.140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2039,68 +2039,45 @@
         <v>466</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>314</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>472</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2109,103 +2086,103 @@
         <v>466</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2214,173 +2191,173 @@
         <v>466</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
+        <v>318</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>319</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>320</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>321</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>302</v>
-      </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2389,33 +2366,33 @@
         <v>466</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2424,33 +2401,33 @@
         <v>466</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2459,33 +2436,33 @@
         <v>466</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2494,33 +2471,33 @@
         <v>466</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2529,33 +2506,33 @@
         <v>466</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2564,33 +2541,33 @@
         <v>466</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -2599,104 +2576,104 @@
         <v>466</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
+        <v>329</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>330</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>331</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>332</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>324</v>
-      </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
@@ -2704,33 +2681,33 @@
         <v>466</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2739,33 +2716,33 @@
         <v>466</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2774,33 +2751,33 @@
         <v>466</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2809,33 +2786,33 @@
         <v>466</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2844,33 +2821,33 @@
         <v>466</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2879,174 +2856,174 @@
         <v>466</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
+        <v>337</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>338</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>339</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>340</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="J30" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>341</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>342</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>344</v>
-      </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
@@ -3054,33 +3031,33 @@
         <v>466</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
+        <v>342</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>345</v>
-      </c>
       <c r="G32" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3089,103 +3066,103 @@
         <v>466</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -3194,33 +3171,33 @@
         <v>466</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3229,33 +3206,33 @@
         <v>466</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3264,33 +3241,33 @@
         <v>466</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3299,33 +3276,33 @@
         <v>466</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -3334,103 +3311,103 @@
         <v>466</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3439,33 +3416,33 @@
         <v>466</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3474,174 +3451,174 @@
         <v>466</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
+        <v>354</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>355</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G45" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="H44" s="7">
-        <v>1</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>356</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>357</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G47" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="H46" s="7">
-        <v>1</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>358</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G48" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>359</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>378</v>
-      </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
@@ -3649,33 +3626,33 @@
         <v>466</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -3684,33 +3661,33 @@
         <v>466</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -3719,33 +3696,33 @@
         <v>466</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -3754,33 +3731,33 @@
         <v>466</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -3789,33 +3766,33 @@
         <v>466</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -3824,33 +3801,33 @@
         <v>466</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -3859,33 +3836,33 @@
         <v>466</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -3894,33 +3871,33 @@
         <v>466</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -3929,33 +3906,33 @@
         <v>466</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -3964,33 +3941,33 @@
         <v>466</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -3999,33 +3976,33 @@
         <v>466</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
@@ -4034,33 +4011,33 @@
         <v>466</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -4069,33 +4046,33 @@
         <v>466</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4104,33 +4081,33 @@
         <v>466</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
@@ -4139,33 +4116,33 @@
         <v>466</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4174,33 +4151,33 @@
         <v>466</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4209,314 +4186,314 @@
         <v>466</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
+        <v>375</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>376</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B66" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G66" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="H65" s="7">
-        <v>1</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K65" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>377</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B67" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G67" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="H66" s="7">
-        <v>1</v>
-      </c>
-      <c r="I66" s="14" t="s">
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="J66" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>378</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="H67" s="7">
-        <v>1</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>466</v>
-      </c>
       <c r="J67" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K67" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
+        <v>379</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
         <v>380</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="10" t="s">
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G70" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="H69" s="7">
-        <v>1</v>
-      </c>
-      <c r="I69" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
         <v>381</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D71" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="E71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G71" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="H70" s="7">
-        <v>1</v>
-      </c>
-      <c r="I70" s="14" t="s">
+      <c r="H71" s="7">
+        <v>1</v>
+      </c>
+      <c r="I71" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K70" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="J71" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>382</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="E72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G72" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="H71" s="7">
-        <v>1</v>
-      </c>
-      <c r="I71" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="H72" s="7">
+        <v>1</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
         <v>383</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="10" t="s">
+      <c r="E73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G73" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H72" s="7">
-        <v>1</v>
-      </c>
-      <c r="I72" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K72" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>384</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>428</v>
-      </c>
       <c r="H73" s="7">
         <v>1</v>
       </c>
@@ -4524,33 +4501,33 @@
         <v>466</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K73" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -4559,103 +4536,103 @@
         <v>466</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K74" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K76" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -4664,33 +4641,33 @@
         <v>466</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K77" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -4699,33 +4676,33 @@
         <v>466</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -4734,33 +4711,33 @@
         <v>466</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K79" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -4769,139 +4746,139 @@
         <v>466</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K80" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
+        <v>391</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>392</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D82" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="10" t="s">
+      <c r="E82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G82" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="H81" s="7">
-        <v>1</v>
-      </c>
-      <c r="I81" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
-        <v>393</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>446</v>
-      </c>
       <c r="H82" s="7">
         <v>1</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
+        <v>393</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="H83" s="7">
+        <v>1</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>394</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D84" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="10" t="s">
+      <c r="E84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G84" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="H83" s="7">
-        <v>1</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
-        <v>395</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>450</v>
-      </c>
       <c r="H84" s="7">
         <v>1</v>
       </c>
@@ -4909,33 +4886,33 @@
         <v>466</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
@@ -4944,104 +4921,104 @@
         <v>466</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
+        <v>396</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H86" s="7">
+        <v>1</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>397</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D87" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="10" t="s">
+      <c r="E87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="G87" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="H86" s="7">
-        <v>1</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K86" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="H87" s="7">
+        <v>1</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>398</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D88" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="10" t="s">
+      <c r="E88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G88" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="H87" s="7">
-        <v>1</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
-        <v>399</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>458</v>
-      </c>
       <c r="H88" s="7">
         <v>1</v>
       </c>
@@ -5049,33 +5026,33 @@
         <v>466</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
@@ -5084,33 +5061,33 @@
         <v>466</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K89" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="10">
-        <v>1129534717</v>
+      <c r="F90" s="10" t="s">
+        <v>459</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
@@ -5119,33 +5096,33 @@
         <v>466</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>462</v>
+      <c r="F91" s="10">
+        <v>1129534717</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
@@ -5154,45 +5131,80 @@
         <v>466</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K91" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
+        <v>420</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
         <v>422</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D93" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="10" t="s">
+      <c r="E93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G93" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="H92" s="7">
-        <v>1</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="K92" s="15" t="s">
-        <v>472</v>
+      <c r="H93" s="7">
+        <v>1</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/winAsimilados/Resources/Formato_Masivo_Empleados.xlsx
+++ b/winAsimilados/Resources/Formato_Masivo_Empleados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aespejel\source\repos\winAsimilados\winAsimilados\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE3177D-7890-412A-980C-B5418990340A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332098E3-6D84-4E97-B209-DBDB6883F5B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{669BB77A-E265-42D7-8B1F-40247EB15B12}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="474">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -1449,13 +1449,16 @@
   </si>
   <si>
     <t>CONSTRUCCIONES ARYVE SA DE CV</t>
+  </si>
+  <si>
+    <t>Porcentaje Descuiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,14 +1489,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1601,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1618,23 +1613,22 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1956,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF2366B-8682-479D-85C8-42D73AA8D484}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,9 +1963,10 @@
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" customWidth="1"/>
     <col min="10" max="10" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2008,3203 +2003,3481 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>313</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>286</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="15"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="14"/>
+      <c r="L3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>314</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>471</v>
+      <c r="I4" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>315</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>471</v>
+      <c r="I5" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>316</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>471</v>
+      <c r="J6" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>317</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>471</v>
+      <c r="I7" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>318</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>114</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>471</v>
+      <c r="I8" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>319</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>298</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>471</v>
+      <c r="I9" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>320</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>471</v>
+      <c r="I10" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>321</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>120</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>471</v>
+      <c r="J11" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>322</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>304</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>471</v>
+      <c r="I12" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>323</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>124</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>471</v>
+      <c r="I13" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>324</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>126</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>471</v>
+      <c r="I14" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>325</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>310</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>471</v>
+      <c r="I15" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>326</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>130</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="I16" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>327</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>132</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="I17" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>328</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>316</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="I18" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>329</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="I19" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>330</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="I20" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>331</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="I21" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>332</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>142</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="I22" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>333</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>144</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="I23" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>334</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>146</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="I24" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>335</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>148</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="I25" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>336</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>150</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="I26" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>337</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>152</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>334</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="I27" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>338</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="I28" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>339</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>156</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>338</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="I29" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>340</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>158</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="J30" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>341</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>160</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>342</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
-      <c r="I31" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="I31" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>342</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>162</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>344</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="I32" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>343</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="12" t="s">
         <v>346</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
-      <c r="I33" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="I33" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>344</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="12" t="s">
         <v>348</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="J34" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>345</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="12" t="s">
         <v>350</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="I35" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="I35" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>346</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>170</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>352</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
-      <c r="I36" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="I36" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>347</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>354</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
-      <c r="I37" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="I37" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>348</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>174</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="12" t="s">
         <v>356</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
-      <c r="I38" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="I38" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>349</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>176</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="12" t="s">
         <v>358</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
       </c>
-      <c r="I39" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="I39" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>350</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>178</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="12" t="s">
         <v>360</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
       </c>
-      <c r="I40" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="I40" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>351</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>180</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="12" t="s">
         <v>362</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="J41" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>352</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>182</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>364</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="I42" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>353</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>184</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="12" t="s">
         <v>366</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
       </c>
-      <c r="I43" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="I43" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>354</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>186</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="12" t="s">
         <v>368</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="I44" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>355</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>188</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="12" t="s">
         <v>370</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="I45" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="I45" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>356</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>190</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="12" t="s">
         <v>372</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
-      <c r="I46" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="I46" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>357</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="12" t="s">
         <v>374</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
       </c>
-      <c r="I47" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="I47" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>358</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="12" t="s">
         <v>376</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
-      <c r="I48" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="I48" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>359</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="12" t="s">
         <v>378</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
       </c>
-      <c r="I49" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="I49" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>360</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="12" t="s">
         <v>380</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="I50" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>361</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="12" t="s">
         <v>382</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="I51" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
         <v>362</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>202</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="12" t="s">
         <v>384</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
       </c>
-      <c r="I52" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="I52" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>363</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>204</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="12" t="s">
         <v>386</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="I53" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
         <v>364</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>206</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="12" t="s">
         <v>388</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="I54" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>365</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>208</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="12" t="s">
         <v>390</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
       </c>
-      <c r="I55" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="I55" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <v>366</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>210</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="12" t="s">
         <v>392</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
       </c>
-      <c r="I56" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="I56" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>367</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="12" t="s">
         <v>394</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="I57" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <v>368</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>214</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="12" t="s">
         <v>396</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="I58" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>369</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>216</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="12" t="s">
         <v>398</v>
       </c>
       <c r="H59" s="7">
         <v>1</v>
       </c>
-      <c r="I59" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="I59" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
         <v>370</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>218</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="12" t="s">
         <v>400</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
       </c>
-      <c r="I60" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="I60" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>371</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>220</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="12" t="s">
         <v>402</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
-      <c r="I61" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K61" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="I61" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <v>372</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>222</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="12" t="s">
         <v>404</v>
       </c>
       <c r="H62" s="7">
         <v>1</v>
       </c>
-      <c r="I62" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="I62" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
         <v>373</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>224</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="12" t="s">
         <v>406</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
       </c>
-      <c r="I63" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="I63" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <v>374</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>226</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="12" t="s">
         <v>408</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
       </c>
-      <c r="I64" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="I64" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>375</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>228</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="10" t="s">
+      <c r="F65" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="12" t="s">
         <v>410</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
       </c>
-      <c r="I65" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K65" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="I65" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <v>376</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>230</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="12" t="s">
         <v>412</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
       </c>
-      <c r="I66" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="I66" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
         <v>377</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>232</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="12" t="s">
         <v>414</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="J67" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
         <v>378</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>234</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="12" t="s">
         <v>416</v>
       </c>
       <c r="H68" s="7">
         <v>1</v>
       </c>
-      <c r="I68" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+      <c r="I68" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>379</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>236</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="12" t="s">
         <v>418</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="J69" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="J69" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <v>380</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>238</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F70" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="12" t="s">
         <v>420</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
       </c>
-      <c r="I70" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K70" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="I70" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
         <v>381</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="12" t="s">
         <v>422</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="J71" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <v>382</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>242</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="12" t="s">
         <v>424</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
       </c>
-      <c r="I72" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K72" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="I72" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>383</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>244</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="12" t="s">
         <v>426</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
       </c>
-      <c r="I73" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="I73" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <v>384</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>246</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="12" t="s">
         <v>428</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
       </c>
-      <c r="I74" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="I74" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>385</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>248</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="12" t="s">
         <v>430</v>
       </c>
       <c r="H75" s="7">
         <v>1</v>
       </c>
-      <c r="I75" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="I75" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
         <v>386</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="11" t="s">
         <v>250</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="12" t="s">
         <v>432</v>
       </c>
       <c r="H76" s="7">
         <v>1</v>
       </c>
-      <c r="I76" s="14" t="s">
+      <c r="I76" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="J76" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="J76" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>387</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="11" t="s">
         <v>252</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="12" t="s">
         <v>434</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
       </c>
-      <c r="I77" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="I77" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>388</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>254</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="12" t="s">
         <v>436</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
       </c>
-      <c r="I78" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="I78" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>389</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>256</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="12" t="s">
         <v>438</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
       </c>
-      <c r="I79" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="I79" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
         <v>390</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>258</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="12" t="s">
         <v>440</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
       </c>
-      <c r="I80" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="I80" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>391</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="11" t="s">
         <v>260</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="12" t="s">
         <v>442</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
       </c>
-      <c r="I81" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K81" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="I81" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>392</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
         <v>262</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="12" t="s">
         <v>444</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
       </c>
-      <c r="I82" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
+      <c r="I82" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>393</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="11" t="s">
         <v>264</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="12" t="s">
         <v>446</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I83" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="J83" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="J83" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>394</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="11" t="s">
         <v>266</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="12" t="s">
         <v>448</v>
       </c>
       <c r="H84" s="7">
         <v>1</v>
       </c>
-      <c r="I84" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K84" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
+      <c r="I84" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>395</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>268</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="G85" s="12" t="s">
         <v>450</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
       </c>
-      <c r="I85" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K85" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="I85" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>396</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="11" t="s">
         <v>270</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="G86" s="13" t="s">
+      <c r="G86" s="12" t="s">
         <v>452</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
       </c>
-      <c r="I86" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K86" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
+      <c r="I86" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>397</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="11" t="s">
         <v>272</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="12" t="s">
         <v>454</v>
       </c>
       <c r="H87" s="7">
         <v>1</v>
       </c>
-      <c r="I87" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="I87" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>398</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
         <v>274</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="12" t="s">
         <v>456</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
       </c>
-      <c r="I88" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
+      <c r="I88" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>399</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="11" t="s">
         <v>276</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="12" t="s">
         <v>458</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
       </c>
-      <c r="I89" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="I89" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>400</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="11" t="s">
         <v>278</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="12" t="s">
         <v>460</v>
       </c>
       <c r="H90" s="7">
         <v>1</v>
       </c>
-      <c r="I90" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K90" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
+      <c r="I90" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>402</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="11" t="s">
         <v>280</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="9">
         <v>1129534717</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G91" s="12" t="s">
         <v>461</v>
       </c>
       <c r="H91" s="7">
         <v>1</v>
       </c>
-      <c r="I91" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K91" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="I91" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
         <v>420</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="11" t="s">
         <v>282</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="12" t="s">
         <v>463</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
       </c>
-      <c r="I92" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K92" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
+      <c r="I92" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
         <v>422</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="11" t="s">
         <v>284</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="G93" s="12" t="s">
         <v>465</v>
       </c>
       <c r="H93" s="7">
         <v>1</v>
       </c>
-      <c r="I93" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="K93" s="15" t="s">
-        <v>471</v>
+      <c r="I93" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5212,7 +5485,7 @@
     <protectedRange password="EF7B" sqref="A1:B1" name="Rango1_3_1"/>
     <protectedRange password="EF7B" sqref="C1 F1" name="Rango1_3_1_1"/>
     <protectedRange password="EF7B" sqref="D1 G1" name="Rango1_3_1_2"/>
-    <protectedRange password="EF7B" sqref="E1 H1:K1" name="Rango1_3_1_3"/>
+    <protectedRange password="EF7B" sqref="E1 H1:L1" name="Rango1_3_1_3"/>
   </protectedRanges>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
